--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H2">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I2">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J2">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07610666666666667</v>
+        <v>0.063209</v>
       </c>
       <c r="N2">
-        <v>0.22832</v>
+        <v>0.189627</v>
       </c>
       <c r="O2">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="P2">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="Q2">
-        <v>0.9349693598755556</v>
+        <v>1.544884532055</v>
       </c>
       <c r="R2">
-        <v>8.414724238880002</v>
+        <v>13.903960788495</v>
       </c>
       <c r="S2">
-        <v>0.005315044298528066</v>
+        <v>0.007850514117585812</v>
       </c>
       <c r="T2">
-        <v>0.005315044298528065</v>
+        <v>0.007850514117585812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H3">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I3">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J3">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.639501</v>
       </c>
       <c r="N3">
-        <v>4.918503</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O3">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365667</v>
       </c>
       <c r="P3">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365668</v>
       </c>
       <c r="Q3">
-        <v>20.14124737848634</v>
+        <v>40.070871793395</v>
       </c>
       <c r="R3">
-        <v>181.271226406377</v>
+        <v>360.637846140555</v>
       </c>
       <c r="S3">
-        <v>0.1144974655196355</v>
+        <v>0.2036248911752449</v>
       </c>
       <c r="T3">
-        <v>0.1144974655196355</v>
+        <v>0.2036248911752449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H4">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I4">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J4">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.34995</v>
       </c>
       <c r="O4">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254507</v>
       </c>
       <c r="P4">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254508</v>
       </c>
       <c r="Q4">
-        <v>1.433043655783333</v>
+        <v>2.85103040175</v>
       </c>
       <c r="R4">
-        <v>12.89739290205</v>
+        <v>25.65927361575</v>
       </c>
       <c r="S4">
-        <v>0.008146460022205223</v>
+        <v>0.01448784938563156</v>
       </c>
       <c r="T4">
-        <v>0.008146460022205222</v>
+        <v>0.01448784938563156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>196.815372</v>
       </c>
       <c r="I5">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J5">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07610666666666667</v>
+        <v>0.063209</v>
       </c>
       <c r="N5">
-        <v>0.22832</v>
+        <v>0.189627</v>
       </c>
       <c r="O5">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="P5">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="Q5">
-        <v>4.992987303893334</v>
+        <v>4.146834282916</v>
       </c>
       <c r="R5">
-        <v>44.93688573504</v>
+        <v>37.321508546244</v>
       </c>
       <c r="S5">
-        <v>0.0283837629777659</v>
+        <v>0.02107263061143906</v>
       </c>
       <c r="T5">
-        <v>0.0283837629777659</v>
+        <v>0.02107263061143905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>196.815372</v>
       </c>
       <c r="I6">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J6">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.639501</v>
       </c>
       <c r="N6">
-        <v>4.918503</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O6">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365667</v>
       </c>
       <c r="P6">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365668</v>
       </c>
       <c r="Q6">
         <v>107.559666403124</v>
       </c>
       <c r="R6">
-        <v>968.0369976281161</v>
+        <v>968.0369976281158</v>
       </c>
       <c r="S6">
-        <v>0.6114471941022711</v>
+        <v>0.5465772114743936</v>
       </c>
       <c r="T6">
-        <v>0.6114471941022711</v>
+        <v>0.5465772114743935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>196.815372</v>
       </c>
       <c r="I7">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J7">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.34995</v>
       </c>
       <c r="O7">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254507</v>
       </c>
       <c r="P7">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254508</v>
       </c>
       <c r="Q7">
         <v>7.6528377146</v>
@@ -880,10 +880,10 @@
         <v>68.8755394314</v>
       </c>
       <c r="S7">
-        <v>0.04350428282265757</v>
+        <v>0.03888880318980471</v>
       </c>
       <c r="T7">
-        <v>0.04350428282265757</v>
+        <v>0.03888880318980471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>54.351361</v>
       </c>
       <c r="I8">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J8">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07610666666666667</v>
+        <v>0.063209</v>
       </c>
       <c r="N8">
-        <v>0.22832</v>
+        <v>0.189627</v>
       </c>
       <c r="O8">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="P8">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="Q8">
-        <v>1.378833638168889</v>
+        <v>1.145165059149667</v>
       </c>
       <c r="R8">
-        <v>12.40950274352</v>
+        <v>10.306485532347</v>
       </c>
       <c r="S8">
-        <v>0.007838290944789564</v>
+        <v>0.005819292171863358</v>
       </c>
       <c r="T8">
-        <v>0.007838290944789564</v>
+        <v>0.005819292171863358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>54.351361</v>
       </c>
       <c r="I9">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J9">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>1.639501</v>
       </c>
       <c r="N9">
-        <v>4.918503</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O9">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365667</v>
       </c>
       <c r="P9">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365668</v>
       </c>
       <c r="Q9">
         <v>29.70303690362033</v>
@@ -1004,10 +1004,10 @@
         <v>267.327332132583</v>
       </c>
       <c r="S9">
-        <v>0.1688536156570616</v>
+        <v>0.1509395075869282</v>
       </c>
       <c r="T9">
-        <v>0.1688536156570616</v>
+        <v>0.1509395075869283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>54.351361</v>
       </c>
       <c r="I10">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J10">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.34995</v>
       </c>
       <c r="O10">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254507</v>
       </c>
       <c r="P10">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254508</v>
       </c>
       <c r="Q10">
         <v>2.113362086883333</v>
@@ -1066,10 +1066,10 @@
         <v>19.02025878195</v>
       </c>
       <c r="S10">
-        <v>0.01201388365508544</v>
+        <v>0.01073930028710881</v>
       </c>
       <c r="T10">
-        <v>0.01201388365508544</v>
+        <v>0.01073930028710881</v>
       </c>
     </row>
   </sheetData>
